--- a/medicine/Psychotrope/René_Beille/René_Beille.xlsx
+++ b/medicine/Psychotrope/René_Beille/René_Beille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Beille</t>
+          <t>René_Beille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Beille, né à Perpignan le 3 novembre 1894 et mort à Cabestany le 12 janvier 1991, est un militaire français, officier du 366e régiment d'infanterie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Beille, né à Perpignan le 3 novembre 1894 et mort à Cabestany le 12 janvier 1991, est un militaire français, officier du 366e régiment d'infanterie.
 Amputé d'un poumon après avoir été gazé par les Allemands pendant la Première Guerre mondiale, il meurt à l'âge de 96 ans après avoir reçu le Mérite agricole et repris l'exploitation viticole familiale à Cabestany.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Beille</t>
+          <t>René_Beille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque la Première Guerre mondiale éclate, René Beille a 20 ans. Il est nommé sous lieutenant au 366e régiment d'infanterie où il se fait remarquer : « Jeune officier qui vient de mener avec un entrain, une intrépidité, une audace remarquable l'exécution d'un coup de main délicat »[2].
-Blessé à plusieurs reprises, il se distingue notamment lors de la Bataille de la Marne en 1918[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la Première Guerre mondiale éclate, René Beille a 20 ans. Il est nommé sous lieutenant au 366e régiment d'infanterie où il se fait remarquer : « Jeune officier qui vient de mener avec un entrain, une intrépidité, une audace remarquable l'exécution d'un coup de main délicat ».
+Blessé à plusieurs reprises, il se distingue notamment lors de la Bataille de la Marne en 1918.
 Le 19 juillet 1918 à 19H 45, il dirige un Coup de Main ou il fait des prisonniers, procurant ainsi au haut commandement des renseignements d'importance capitale. Il reçoit une citation à cette occasion.
-A la suite du Coup de main du Mont-sans-Nom, c est René Beille qui décide quels soldats plus que d'autres méritent une distinction[4], en tant qu Officier commandant le Corps Franc du 366eme RI[5].
-Gazé par les allemands et plusieurs fois blessé, René Beille reçoit sept citations. Il est décoré sur le champ de bataille, avec Joseph Darnand[6], par le Général Gouraud qui commande la 4e armée[7]. 
+A la suite du Coup de main du Mont-sans-Nom, c est René Beille qui décide quels soldats plus que d'autres méritent une distinction, en tant qu Officier commandant le Corps Franc du 366eme RI.
+Gazé par les allemands et plusieurs fois blessé, René Beille reçoit sept citations. Il est décoré sur le champ de bataille, avec Joseph Darnand, par le Général Gouraud qui commande la 4e armée. 
 Pour ses faits d'armes, le 30 avril 1918, il reçoit la croix de guerre. Mutilé et invalide de guerre à 100 %, il reprend pourtant l'exploitation viticole familiale à Cabestany.
 Le Général Gouraud remet au lieutenant Beille, accompagné des membres de son régiment, la croix de la Légion d'honneur le 7 avril 1927, au cours d'une prise d'armes dans la cour des Invalides. La croix est accompagnée de cette citation : « Par son exemple, son énergie, par sa vaillance, par sa ténacité a su inspirer à ses hommes une ardeur et un mépris du danger. »
-Alors qu'il est mutilé de guerre, le 15 juin 1944, pendant l'occupation, René Beille écrit à Joseph Darnand, alors responsable de la police de Vichy et qu'il n'avait pas revu depuis, pour tenter de sauver, en vain, son beau fils, Pierre Fournera, incarcéré à la prison Saint-Michel de Toulouse[8],[9]. Pierre Fournera est fusillé par les allemands, le 1er août 1944, au camp de Souge, après avoir été arrêté par la Gestapo de Toulouse et déporté à Dachau par le train fantôme[10],[11].
+Alors qu'il est mutilé de guerre, le 15 juin 1944, pendant l'occupation, René Beille écrit à Joseph Darnand, alors responsable de la police de Vichy et qu'il n'avait pas revu depuis, pour tenter de sauver, en vain, son beau fils, Pierre Fournera, incarcéré à la prison Saint-Michel de Toulouse,. Pierre Fournera est fusillé par les allemands, le 1er août 1944, au camp de Souge, après avoir été arrêté par la Gestapo de Toulouse et déporté à Dachau par le train fantôme,.
 À l'origine de la création[réf. nécessaire] de l'appellation d'origine contrôlée Rivesaltes en 1936, avec plusieurs vignerons du Roussillon et l'aide notamment du Maréchal Joffre (natif de Rivesaltes) et sa famille, René Beille reçoit la médaille du Mérite agricole le 20 septembre 1950 pour son implication dans la viticulture du Roussillon.
 René Beille meurt le 12 janvier 1991, à Cabestany, à l'âge de 96 ans. Invalide de guerre à 100 %, après avoir été blessé à plusieurs reprises pendant la Première Guerre mondiale, il a vécu pendant plus de 70 ans avec un seul poumon.
 			Rapport du 30 avril 1918 concernant la croix de guerre avec palmes de René Beille.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Beille</t>
+          <t>René_Beille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1914-1918 (30 avril 1918) avec sept citations ;
  Officier de la Légion d'honneur (7 avril 1927) ;
